--- a/Tilak.xlsx
+++ b/Tilak.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelat\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,10 @@
     <t>Severity</t>
   </si>
   <si>
-    <t>Recconmandation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Issue </t>
   </si>
   <si>
     <t>SQL Injection</t>
-  </si>
-  <si>
-    <t>As per observastion made the web application OWASP Juice Shop is vulnerable to SQL injection, Where the attacker will enter a malicious code instead of correct data in login credentials through which the attacker will gain access as a authenticated user</t>
   </si>
   <si>
     <t>Injection can result in data loss, corruption, or disclosure to unauthorized parties, loss of accountability, or denial of access. Injection can sometimes lead to complete host takeover.
@@ -57,9 +51,6 @@
     <t>HIGH</t>
   </si>
   <si>
-    <t>1. Use safe API or adapte the use of Object Relational mapping Tools.                                                                                               2.Use Server side validation and prevent use of userID's and passwords using special charecters.</t>
-  </si>
-  <si>
     <t>SCREEEN SHOTS</t>
   </si>
   <si>
@@ -81,12 +72,6 @@
     <t>Sensitive Data Exposure</t>
   </si>
   <si>
-    <t>when the packets are in tercepted  using burp suite the data in packets are sent in plain text.</t>
-  </si>
-  <si>
-    <t>The most basic flaw is simply not encrytpind dataA manual attack is generally required. Previously retrieved password databases could be brute forced by Graphics Processing Units (GPUs).</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -99,22 +84,37 @@
     <t>Attackers can exploit vulnerable XML processors if they can upload XML or include hostile content in an XML document, exploiting vulnerable code, dependencies or integrations.</t>
   </si>
   <si>
-    <t>These flaws can be used to extract data, execute a remote request from the server, scan internal systems, perform a denial-of-service attack, as well as execute other attacks. The business impact depends in the prtection reeds of all affected application and data.</t>
-  </si>
-  <si>
-    <t>1.Avoid serialization of data.                                                             2.Implement server ide validation, filterering or sanitization.</t>
-  </si>
-  <si>
     <t>Cross Site Scripting</t>
   </si>
   <si>
-    <t>As per the observation the script can be execeuted in the URL.</t>
-  </si>
-  <si>
     <t>The impact of XSS is moderate for reflected and DOM XSS, and severe for stored XSS, with remote code execution on the victim's browser, such as stealing credentials, sessions, or delivering malware to the victim.</t>
   </si>
   <si>
-    <t>1.Apply context sensitive encoding when odifying the browser document on the client side</t>
+    <t>As per observation made the web application OWASP Juice Shop is vulnerable to SQL injection, Where the attacker will enter a malicious code instead of correct data in login credentials through which the attacker will gain access as a authenticated user</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>1. Use safe API or adopt the use of Object Relational mapping Tools.                                                                                               2.Use Server side validation and prevent use of userID's and passwords using special characters.</t>
+  </si>
+  <si>
+    <t>when the packets are in intercepted  using burp suite the data in packets are sent in plain text.</t>
+  </si>
+  <si>
+    <t>The most basic flaw is simply not encrypting data manual attack is generally required. Previously retrieved password databases could be brute forced by Graphics Processing Units (GPUs).</t>
+  </si>
+  <si>
+    <t>These flaws can be used to extract data, execute a remote request from the server, scan internal systems, perform a denial-of-service attack, as well as execute other attacks. The business impact depends in the protection reeds of all affected application and data.</t>
+  </si>
+  <si>
+    <t>1.Avoid serialization of data.                                                             2.Implement server ide validation, filtering or sanitization.</t>
+  </si>
+  <si>
+    <t>As per the observation the script can be executed in the URL.</t>
+  </si>
+  <si>
+    <t>1.Apply context sensitive encoding when modifying the browser document on the client side</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" zoomScaleNormal="64" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="A10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -989,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,19 +1000,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="228" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,19 +1031,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="242.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1052,19 +1052,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1076,19 +1076,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,16 +1096,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>29</v>
